--- a/TYPE_A/Config/Config_TypeA.xlsx
+++ b/TYPE_A/Config/Config_TypeA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heysunn\Documents\GitHub\Project_TYPE_A-ACME_UploadReport\TYPE_A\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\TYPE_A\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>[RPA_TypeA]KS_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연도별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과보고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+[RPA_TypeA]KS_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연도별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과물을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Report-{TaxID}-{Year}-{Month}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +673,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wmy1766@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmas31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ACME_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,6 +883,118 @@
   </si>
   <si>
     <t>xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\heysunn\Desktop\</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>ERROR_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러발생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error_Tilte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error_Body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
@@ -1170,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1182,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1194,17 +1515,21 @@
     </row>
     <row r="5" spans="1:4" ht="16.899999999999999">
       <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
@@ -1228,8 +1553,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1238,7 +1566,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
@@ -1294,7 +1622,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -1305,10 +1633,10 @@
     </row>
     <row r="6" spans="1:3" ht="16.899999999999999">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1322,26 +1650,26 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1349,7 +1677,12 @@
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
@@ -1392,7 +1725,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
@@ -1423,13 +1756,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1444,7 +1777,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -1462,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -1495,13 +1828,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1513,13 +1846,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1530,8 +1863,12 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1543,10 +1880,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1559,10 +1896,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1575,7 +1912,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1">
         <v>2021</v>
@@ -1583,10 +1920,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1599,10 +1936,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1626,8 +1963,12 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1816,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
@@ -1880,18 +2221,22 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16.899999999999999">
+    <row r="6" spans="1:5" ht="50.65">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
@@ -1926,15 +2271,23 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
